--- a/evidence.xlsx
+++ b/evidence.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="88">
   <si>
     <t>Path</t>
   </si>
@@ -214,6 +214,10 @@
     <t>Extension.extension.url</t>
   </si>
   <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
     <t>identifies the meaning of the extension</t>
   </si>
   <si>
@@ -252,6 +256,10 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
     <t>valueCodeableConcept</t>
   </si>
   <si>
@@ -281,7 +289,7 @@
   </si>
   <si>
     <t>base64Binary
-booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosage</t>
+booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
   </si>
 </sst>
 </file>
@@ -881,7 +889,7 @@
         <v>37</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>37</v>
@@ -985,7 +993,7 @@
         <v>37</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>37</v>
@@ -1185,7 +1193,7 @@
         <v>37</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>37</v>
@@ -1216,16 +1224,16 @@
         <v>37</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -1275,7 +1283,7 @@
         <v>37</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>45</v>
@@ -1290,12 +1298,12 @@
         <v>37</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1318,13 +1326,13 @@
         <v>37</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1363,17 +1371,17 @@
         <v>37</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>38</v>
@@ -1385,18 +1393,18 @@
         <v>37</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>37</v>
@@ -1418,13 +1426,13 @@
         <v>37</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1451,11 +1459,11 @@
         <v>37</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="X10" s="2"/>
       <c r="Y10" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z10" t="s" s="2">
         <v>37</v>
@@ -1473,7 +1481,7 @@
         <v>37</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>38</v>
@@ -1485,10 +1493,10 @@
         <v>37</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" hidden="true">
@@ -1496,13 +1504,13 @@
         <v>51</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E11" t="s" s="2">
         <v>38</v>
@@ -1520,13 +1528,13 @@
         <v>37</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1589,7 +1597,7 @@
         <v>37</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>37</v>
@@ -1597,7 +1605,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1620,16 +1628,16 @@
         <v>37</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -1637,7 +1645,7 @@
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="R12" t="s" s="2">
         <v>37</v>
@@ -1679,7 +1687,7 @@
         <v>37</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>45</v>
@@ -1694,12 +1702,12 @@
         <v>37</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1722,13 +1730,13 @@
         <v>37</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1779,7 +1787,7 @@
         <v>37</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>38</v>
@@ -1791,10 +1799,10 @@
         <v>37</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
